--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="DataCatalog" sheetId="1" state="visible" r:id="rId3"/>
@@ -14,6 +14,8 @@
     <sheet name="Concepts" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="Metrics" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="QualityMeasurements" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="QualityAnnotations" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="DatasetSeries" sheetId="8" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="155">
   <si>
     <t xml:space="preserve">dcterms:title</t>
   </si>
@@ -84,6 +86,9 @@
     <t xml:space="preserve">prov:wasDerivedFrom</t>
   </si>
   <si>
+    <t xml:space="preserve">dcat:inSeries</t>
+  </si>
+  <si>
     <t xml:space="preserve">dcat:distribution</t>
   </si>
   <si>
@@ -475,6 +480,18 @@
   </si>
   <si>
     <t xml:space="preserve">prov:generatedAtTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oa:hasTarget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oa:hasBody/rdf:value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcterms:creator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcterms:created</t>
   </si>
 </sst>
 </file>
@@ -739,8 +756,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -808,10 +825,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O1001"/>
+  <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="1" sqref="A1:E1 N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -876,29 +893,32 @@
       <c r="O1" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="5" t="n">
         <v>29221</v>
@@ -906,30 +926,30 @@
       <c r="K2" s="6" t="n">
         <v>44561</v>
       </c>
-      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="5" t="n">
         <v>29221</v>
@@ -937,30 +957,30 @@
       <c r="K3" s="6" t="n">
         <v>44561</v>
       </c>
-      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29221</v>
@@ -968,30 +988,30 @@
       <c r="K4" s="6" t="n">
         <v>44561</v>
       </c>
-      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29221</v>
@@ -999,29 +1019,29 @@
       <c r="K5" s="6" t="n">
         <v>44561</v>
       </c>
-      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29221</v>
@@ -1032,25 +1052,25 @@
     </row>
     <row r="7" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29221</v>
@@ -4081,8 +4101,8 @@
   </sheetPr>
   <dimension ref="A1:H242"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="A1:E1 H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4104,312 +4124,312 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,8 +5156,8 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A1:E1 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5152,146 +5172,146 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5324,8 +5344,8 @@
   </sheetPr>
   <dimension ref="A1:E1002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="A1:E1 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5341,33 +5361,33 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8394,8 +8414,8 @@
   </sheetPr>
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="A1:E1 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8411,16 +8431,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12450,4 +12470,87 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.94"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>